--- a/evaluation/results/hybrid/pca/LOF/split_3/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/LOF/split_3/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.4822097378277154</v>
+        <v>0.6357677902621723</v>
       </c>
       <c r="C2">
-        <v>0.2682926829268293</v>
+        <v>0.5787187839305103</v>
       </c>
       <c r="D2">
-        <v>0.02059925093632959</v>
+        <v>0.99812734082397</v>
       </c>
       <c r="E2">
-        <v>0.03826086956521739</v>
+        <v>0.7326460481099656</v>
       </c>
       <c r="F2">
-        <v>0.02526412494258153</v>
+        <v>0.8717697088649002</v>
       </c>
       <c r="G2">
-        <v>0.02135762825778508</v>
+        <v>0.9710601919977577</v>
       </c>
       <c r="H2">
-        <v>0.4822097378277153</v>
+        <v>0.8023502924714893</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>533</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>388</v>
       </c>
       <c r="K2">
-        <v>504</v>
+        <v>146</v>
       </c>
       <c r="L2">
-        <v>523</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.4907497565725414</v>
+        <v>0.9931972789115646</v>
       </c>
       <c r="C2">
-        <v>0.9438202247191011</v>
+        <v>0.2734082397003745</v>
       </c>
       <c r="D2">
-        <v>0.6457399103139013</v>
+        <v>0.4287812041116006</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.2682926829268293</v>
+        <v>0.5787187839305103</v>
       </c>
       <c r="C3">
-        <v>0.02059925093632959</v>
+        <v>0.99812734082397</v>
       </c>
       <c r="D3">
-        <v>0.03826086956521739</v>
+        <v>0.7326460481099656</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.4822097378277154</v>
+        <v>0.6357677902621723</v>
       </c>
       <c r="C4">
-        <v>0.4822097378277154</v>
+        <v>0.6357677902621723</v>
       </c>
       <c r="D4">
-        <v>0.4822097378277154</v>
+        <v>0.6357677902621723</v>
       </c>
       <c r="E4">
-        <v>0.4822097378277154</v>
+        <v>0.6357677902621723</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.3795212197496853</v>
+        <v>0.7859580314210375</v>
       </c>
       <c r="C5">
-        <v>0.4822097378277154</v>
+        <v>0.6357677902621723</v>
       </c>
       <c r="D5">
-        <v>0.3420003899395593</v>
+        <v>0.580713626110783</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.3795212197496853</v>
+        <v>0.7859580314210375</v>
       </c>
       <c r="C6">
-        <v>0.4822097378277154</v>
+        <v>0.6357677902621723</v>
       </c>
       <c r="D6">
-        <v>0.3420003899395593</v>
+        <v>0.5807136261107831</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>504</v>
+        <v>146</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
